--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>2691600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5759900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>5759900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4372600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>4372600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2865300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>2865300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3929500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>3929500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6130800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>6130800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2703200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>2703200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2094500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>2094500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3103500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>3103500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1708000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>1708000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3523000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>3523000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4789100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>4789100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>5096000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>5096000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>14710200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8141200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>8141200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>5760200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8441200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>8441200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>7397600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>7397600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>23250300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>23250300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>11652900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>11652900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>12852200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>12852200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>7232500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>8160100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>8160100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>6641800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>6641800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>5219500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2639"/>
+  <dimension ref="A1:I2640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92743,6 +92743,41 @@
         <v>5219500</v>
       </c>
     </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2640" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2640" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2640" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2640" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2640" t="n">
+        <v>5288700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2640"/>
+  <dimension ref="A1:I2641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92778,6 +92778,41 @@
         <v>5288700</v>
       </c>
     </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2641" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2641" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2641" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2641" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2641" t="n">
+        <v>6134100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2641"/>
+  <dimension ref="A1:I2642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92813,6 +92813,41 @@
         <v>6134100</v>
       </c>
     </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2642" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2642" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2642" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2642" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2642" t="n">
+        <v>4833500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2642"/>
+  <dimension ref="A1:I2643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92848,6 +92848,41 @@
         <v>4833500</v>
       </c>
     </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2643" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2643" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2643" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2643" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2643" t="n">
+        <v>3384900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2643"/>
+  <dimension ref="A1:I2644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92883,6 +92883,41 @@
         <v>3384900</v>
       </c>
     </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2644" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2644" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2644" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2644" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2644" t="n">
+        <v>4921400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2644"/>
+  <dimension ref="A1:I2645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92918,6 +92918,41 @@
         <v>4921400</v>
       </c>
     </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2645" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2645" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2645" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2645" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2645" t="n">
+        <v>1888000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2645"/>
+  <dimension ref="A1:I2646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92953,6 +92953,41 @@
         <v>1888000</v>
       </c>
     </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2646" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2646" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2646" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2646" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2646" t="n">
+        <v>4026500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2646"/>
+  <dimension ref="A1:I2647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92988,6 +92988,41 @@
         <v>4026500</v>
       </c>
     </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2647" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2647" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2647" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2647" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2647" t="n">
+        <v>5434700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2647"/>
+  <dimension ref="A1:I2648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93023,6 +93023,41 @@
         <v>5434700</v>
       </c>
     </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2648" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2648" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2648" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2648" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2648" t="n">
+        <v>7946300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2648"/>
+  <dimension ref="A1:I2649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93058,6 +93058,41 @@
         <v>7946300</v>
       </c>
     </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2649" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2649" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2649" t="n">
+        <v>10812900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2649"/>
+  <dimension ref="A1:I2650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93093,6 +93093,41 @@
         <v>10812900</v>
       </c>
     </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2650" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2650" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2650" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2650" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2650" t="n">
+        <v>6652700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93128,6 +93128,41 @@
         <v>6652700</v>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2651" t="n">
+        <v>5318300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93163,6 +93163,41 @@
         <v>5318300</v>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2652" t="n">
+        <v>10390100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2652"/>
+  <dimension ref="A1:I2653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93198,6 +93198,41 @@
         <v>10390100</v>
       </c>
     </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2653" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2653" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2653" t="n">
+        <v>6132500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4383.xlsx
+++ b/data/4383.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2653"/>
+  <dimension ref="A1:I2654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93233,6 +93233,41 @@
         <v>6132500</v>
       </c>
     </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2654" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2654" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2654" t="n">
+        <v>4940300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
